--- a/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
+++ b/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/DS Project Sheets/WePLAYCenterSurveyData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E5277-8DE4-4747-B94D-BC3F015ED6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86CB96-322A-F845-9F00-43128E0D7482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="1040" windowWidth="20120" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="154">
   <si>
     <t>First Name</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>Williams Sr.</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -498,6 +501,7 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -540,9 +544,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,115 +886,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW13"/>
+  <dimension ref="A1:BX13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV2" sqref="BV2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -998,22 +1009,22 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
@@ -1028,10 +1039,10 @@
         <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
@@ -1061,151 +1072,151 @@
         <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="BV2" s="1" t="s">
         <v>34</v>
@@ -1213,65 +1224,68 @@
       <c r="BW2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="BX2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>70122</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>85</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>88</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>89</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
-        <v>92</v>
-      </c>
       <c r="Z3" t="s">
         <v>92</v>
       </c>
       <c r="AA3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" t="s">
-        <v>92</v>
-      </c>
       <c r="AC3" t="s">
         <v>92</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>92</v>
       </c>
       <c r="AJ3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK3" t="s">
         <v>94</v>
@@ -1309,13 +1323,13 @@
         <v>94</v>
       </c>
       <c r="AO3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP3" t="s">
         <v>95</v>
       </c>
-      <c r="AP3" t="s">
-        <v>96</v>
-      </c>
       <c r="AQ3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AR3" t="s">
         <v>94</v>
@@ -1324,105 +1338,108 @@
         <v>94</v>
       </c>
       <c r="AT3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AU3" t="s">
         <v>96</v>
       </c>
       <c r="AV3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AW3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX3" t="s">
         <v>89</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>65</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>98</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>74</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>89</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" t="s">
         <v>99</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>102</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>70116</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>104</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>105</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>81</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>106</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>89</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>107</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" t="s">
-        <v>92</v>
-      </c>
       <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" t="s">
-        <v>92</v>
-      </c>
       <c r="AB4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="s">
         <v>109</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>108</v>
       </c>
       <c r="AD4" t="s">
         <v>108</v>
@@ -1434,142 +1451,145 @@
         <v>108</v>
       </c>
       <c r="AG4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AH4" t="s">
         <v>92</v>
       </c>
       <c r="AI4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>108</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s">
         <v>96</v>
       </c>
       <c r="AL4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AM4" t="s">
         <v>94</v>
       </c>
       <c r="AN4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO4" t="s">
         <v>110</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>95</v>
       </c>
-      <c r="AP4" t="s">
-        <v>94</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR4" t="s">
         <v>96</v>
       </c>
       <c r="AS4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AT4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU4" t="s">
         <v>95</v>
       </c>
-      <c r="AU4" t="s">
-        <v>96</v>
-      </c>
       <c r="AV4" t="s">
         <v>96</v>
       </c>
       <c r="AW4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX4" t="s">
         <v>91</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>62</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>63</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>64</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>65</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>66</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>68</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>69</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>70</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>71</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>74</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>111</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>70116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>103</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>85</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>112</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>106</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>89</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>107</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" t="s">
-        <v>92</v>
-      </c>
       <c r="Z5" t="s">
         <v>92</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>92</v>
       </c>
       <c r="AJ5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s">
         <v>94</v>
@@ -1613,117 +1633,120 @@
         <v>94</v>
       </c>
       <c r="AN5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AO5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP5" t="s">
         <v>110</v>
       </c>
-      <c r="AP5" t="s">
-        <v>96</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AR5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AS5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AT5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU5" t="s">
         <v>110</v>
       </c>
-      <c r="AU5" t="s">
-        <v>96</v>
-      </c>
       <c r="AV5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AW5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX5" t="s">
         <v>91</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>62</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>67</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>70</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>74</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>89</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BW5" t="s">
         <v>114</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BX5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>70119</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>116</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>117</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>105</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>106</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>108</v>
       </c>
-      <c r="Z6" t="s">
-        <v>92</v>
-      </c>
       <c r="AA6" t="s">
         <v>92</v>
       </c>
       <c r="AB6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="AC6" t="s">
         <v>108</v>
       </c>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s">
         <v>92</v>
@@ -1741,10 +1764,10 @@
         <v>92</v>
       </c>
       <c r="AJ6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AL6" t="s">
         <v>94</v>
@@ -1753,13 +1776,13 @@
         <v>94</v>
       </c>
       <c r="AN6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AO6" t="s">
         <v>110</v>
       </c>
       <c r="AP6" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="AQ6" t="s">
         <v>96</v>
@@ -1780,66 +1803,69 @@
         <v>96</v>
       </c>
       <c r="AW6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>70131</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>104</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>106</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>91</v>
       </c>
-      <c r="Y7" t="s">
-        <v>92</v>
-      </c>
       <c r="Z7" t="s">
         <v>92</v>
       </c>
       <c r="AA7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB7" t="s">
         <v>93</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>109</v>
       </c>
       <c r="AC7" t="s">
         <v>109</v>
       </c>
       <c r="AD7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="s">
         <v>92</v>
@@ -1851,19 +1877,19 @@
         <v>92</v>
       </c>
       <c r="AH7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI7" t="s">
         <v>109</v>
       </c>
-      <c r="AI7" t="s">
-        <v>92</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s">
         <v>96</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AM7" t="s">
         <v>94</v>
@@ -1872,11 +1898,11 @@
         <v>94</v>
       </c>
       <c r="AO7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP7" t="s">
         <v>110</v>
       </c>
-      <c r="AP7" t="s">
-        <v>96</v>
-      </c>
       <c r="AQ7" t="s">
         <v>96</v>
       </c>
@@ -1887,99 +1913,102 @@
         <v>96</v>
       </c>
       <c r="AT7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU7" t="s">
         <v>95</v>
       </c>
-      <c r="AU7" t="s">
-        <v>96</v>
-      </c>
       <c r="AV7" t="s">
         <v>96</v>
       </c>
       <c r="AW7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX7" t="s">
         <v>89</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>119</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>62</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>65</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>70</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>71</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>120</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="BT7" t="s">
         <v>121</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>89</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BW7" t="s">
         <v>122</v>
       </c>
-      <c r="BW7" t="s">
+      <c r="BX7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>111</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>70128</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>112</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>87</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>106</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>91</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>93</v>
       </c>
       <c r="Z8" t="s">
         <v>93</v>
       </c>
       <c r="AA8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB8" t="s">
         <v>108</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>93</v>
       </c>
       <c r="AC8" t="s">
         <v>93</v>
@@ -1997,14 +2026,14 @@
         <v>93</v>
       </c>
       <c r="AH8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI8" t="s">
         <v>109</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>93</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>94</v>
-      </c>
       <c r="AK8" t="s">
         <v>94</v>
       </c>
@@ -2018,13 +2047,13 @@
         <v>94</v>
       </c>
       <c r="AO8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP8" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" t="s">
-        <v>96</v>
-      </c>
       <c r="AQ8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AR8" t="s">
         <v>94</v>
@@ -2033,79 +2062,82 @@
         <v>94</v>
       </c>
       <c r="AT8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU8" t="s">
         <v>110</v>
       </c>
-      <c r="AU8" t="s">
-        <v>96</v>
-      </c>
       <c r="AV8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AW8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX8" t="s">
         <v>89</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>124</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>63</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>70</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>125</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>74</v>
       </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>70118</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>126</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>105</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>87</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>106</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>91</v>
       </c>
-      <c r="Y9" t="s">
-        <v>92</v>
-      </c>
       <c r="Z9" t="s">
         <v>92</v>
       </c>
@@ -2131,13 +2163,13 @@
         <v>92</v>
       </c>
       <c r="AH9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI9" t="s">
         <v>108</v>
       </c>
-      <c r="AI9" t="s">
-        <v>92</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK9" t="s">
         <v>94</v>
@@ -2152,14 +2184,14 @@
         <v>94</v>
       </c>
       <c r="AO9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP9" t="s">
         <v>95</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>110</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>94</v>
-      </c>
       <c r="AR9" t="s">
         <v>94</v>
       </c>
@@ -2170,106 +2202,109 @@
         <v>94</v>
       </c>
       <c r="AU9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV9" t="s">
         <v>95</v>
       </c>
-      <c r="AV9" t="s">
-        <v>94</v>
-      </c>
       <c r="AW9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX9" t="s">
         <v>89</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>127</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>63</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>64</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>65</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>69</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>70</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>71</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>128</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>74</v>
       </c>
-      <c r="BT9" t="s">
+      <c r="BU9" t="s">
         <v>89</v>
       </c>
-      <c r="BU9" t="s">
+      <c r="BV9" t="s">
         <v>129</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BW9" t="s">
         <v>130</v>
       </c>
-      <c r="BW9" t="s">
+      <c r="BX9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>70115</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>132</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>81</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>133</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" t="s">
-        <v>92</v>
-      </c>
       <c r="Z10" t="s">
         <v>92</v>
       </c>
       <c r="AA10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB10" t="s">
         <v>93</v>
       </c>
-      <c r="AB10" t="s">
-        <v>92</v>
-      </c>
       <c r="AC10" t="s">
         <v>92</v>
       </c>
@@ -2277,11 +2312,11 @@
         <v>92</v>
       </c>
       <c r="AE10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10" t="s">
         <v>108</v>
       </c>
-      <c r="AF10" t="s">
-        <v>92</v>
-      </c>
       <c r="AG10" t="s">
         <v>92</v>
       </c>
@@ -2292,10 +2327,10 @@
         <v>92</v>
       </c>
       <c r="AJ10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s">
         <v>94</v>
@@ -2307,13 +2342,13 @@
         <v>94</v>
       </c>
       <c r="AO10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP10" t="s">
         <v>95</v>
       </c>
       <c r="AQ10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AR10" t="s">
         <v>94</v>
@@ -2322,81 +2357,84 @@
         <v>94</v>
       </c>
       <c r="AT10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU10" t="s">
         <v>110</v>
       </c>
-      <c r="AU10" t="s">
-        <v>96</v>
-      </c>
       <c r="AV10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AW10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX10" t="s">
         <v>91</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>64</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>69</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>70</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>134</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>89</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>135</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BX10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>70115</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>116</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>117</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>105</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>106</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>91</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>93</v>
       </c>
       <c r="Z11" t="s">
         <v>93</v>
@@ -2405,7 +2443,7 @@
         <v>93</v>
       </c>
       <c r="AB11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC11" t="s">
         <v>92</v>
@@ -2414,13 +2452,13 @@
         <v>92</v>
       </c>
       <c r="AE11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF11" t="s">
         <v>93</v>
       </c>
-      <c r="AF11" t="s">
-        <v>92</v>
-      </c>
       <c r="AG11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH11" t="s">
         <v>93</v>
@@ -2429,11 +2467,11 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK11" t="s">
         <v>110</v>
       </c>
-      <c r="AK11" t="s">
-        <v>94</v>
-      </c>
       <c r="AL11" t="s">
         <v>94</v>
       </c>
@@ -2441,115 +2479,118 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AO11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP11" t="s">
         <v>95</v>
       </c>
-      <c r="AP11" t="s">
-        <v>96</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AR11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AS11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AT11" t="s">
         <v>94</v>
       </c>
       <c r="AU11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AV11" t="s">
         <v>96</v>
       </c>
       <c r="AW11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX11" t="s">
         <v>91</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>63</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>137</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>78</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>89</v>
       </c>
-      <c r="BV11" t="s">
+      <c r="BW11" t="s">
         <v>138</v>
       </c>
-      <c r="BW11" t="s">
+      <c r="BX11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>139</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>140</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>70114</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>85</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>81</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>106</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>141</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>106</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>91</v>
       </c>
-      <c r="Y12" t="s">
-        <v>92</v>
-      </c>
       <c r="Z12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA12" t="s">
         <v>108</v>
       </c>
-      <c r="AA12" t="s">
-        <v>92</v>
-      </c>
       <c r="AB12" t="s">
         <v>92</v>
       </c>
@@ -2575,10 +2616,10 @@
         <v>92</v>
       </c>
       <c r="AJ12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AK12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AL12" t="s">
         <v>94</v>
@@ -2590,13 +2631,13 @@
         <v>94</v>
       </c>
       <c r="AO12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP12" t="s">
         <v>95</v>
       </c>
       <c r="AQ12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AR12" t="s">
         <v>94</v>
@@ -2605,82 +2646,85 @@
         <v>94</v>
       </c>
       <c r="AT12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU12" t="s">
         <v>95</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>110</v>
       </c>
-      <c r="AV12" t="s">
-        <v>96</v>
-      </c>
       <c r="AW12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX12" t="s">
         <v>89</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>142</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>143</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>73</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>74</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>89</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BW12" t="s">
         <v>144</v>
       </c>
-      <c r="BW12" t="s">
+      <c r="BX12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>146</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>70122</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>117</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>147</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>87</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>148</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" t="s">
-        <v>92</v>
-      </c>
       <c r="Z13" t="s">
         <v>92</v>
       </c>
@@ -2694,87 +2738,90 @@
         <v>92</v>
       </c>
       <c r="AD13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="AE13" t="s">
         <v>108</v>
       </c>
       <c r="AF13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AG13" t="s">
         <v>92</v>
       </c>
       <c r="AH13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s">
         <v>108</v>
       </c>
-      <c r="AI13" t="s">
-        <v>92</v>
-      </c>
       <c r="AJ13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK13" t="s">
         <v>110</v>
       </c>
-      <c r="AK13" t="s">
-        <v>94</v>
-      </c>
       <c r="AL13" t="s">
         <v>94</v>
       </c>
       <c r="AM13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN13" t="s">
         <v>110</v>
       </c>
-      <c r="AN13" t="s">
-        <v>96</v>
-      </c>
       <c r="AO13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP13" t="s">
         <v>95</v>
       </c>
       <c r="AQ13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AS13" t="s">
         <v>94</v>
       </c>
       <c r="AT13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU13" t="s">
         <v>95</v>
       </c>
       <c r="AV13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AW13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX13" t="s">
         <v>91</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>149</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>64</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>150</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BM13" t="s">
         <v>74</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>77</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>89</v>
       </c>
-      <c r="BV13" t="s">
+      <c r="BW13" t="s">
         <v>151</v>
       </c>
-      <c r="BW13" t="s">
+      <c r="BX13" t="s">
         <v>152</v>
       </c>
     </row>

--- a/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
+++ b/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86CB96-322A-F845-9F00-43128E0D7482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9E13D-3DA9-1347-97C8-8C1FBFDFFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="1040" windowWidth="20120" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,10 +544,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,16 +890,16 @@
   <dimension ref="A1:BX13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -999,7 +1000,7 @@
       </c>
     </row>
     <row r="2" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1229,7 +1230,7 @@
       </c>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43894</v>
       </c>
       <c r="B3" t="s">
@@ -1381,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>43882</v>
       </c>
       <c r="B4" t="s">
@@ -1542,7 +1543,7 @@
       </c>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43880</v>
       </c>
       <c r="B5" t="s">
@@ -1691,7 +1692,7 @@
       </c>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>43879</v>
       </c>
       <c r="B6" t="s">
@@ -1810,7 +1811,7 @@
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43879</v>
       </c>
       <c r="B7" t="s">
@@ -1959,7 +1960,7 @@
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>43872</v>
       </c>
       <c r="B8" t="s">
@@ -2096,7 +2097,7 @@
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>43852</v>
       </c>
       <c r="B9" t="s">
@@ -2254,7 +2255,7 @@
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43852</v>
       </c>
       <c r="B10" t="s">
@@ -2394,7 +2395,7 @@
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43852</v>
       </c>
       <c r="B11" t="s">
@@ -2531,7 +2532,7 @@
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>43852</v>
       </c>
       <c r="B12" t="s">
@@ -2683,7 +2684,7 @@
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43852</v>
       </c>
       <c r="B13" t="s">

--- a/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
+++ b/_data/WePlayData/CleanedWPCIncomingParentReflectionForm2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9E13D-3DA9-1347-97C8-8C1FBFDFFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE46DA3-9017-F047-B36F-BB3A4E0CD6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1040" windowWidth="20120" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="1040" windowWidth="20120" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="150">
   <si>
     <t>First Name</t>
   </si>
@@ -153,18 +153,6 @@
   </si>
   <si>
     <t>I am knowledgeable about positive and nurturing parenting strategies</t>
-  </si>
-  <si>
-    <t>I utilize positive parenting strategies</t>
-  </si>
-  <si>
-    <t>I am supported in my role as a parent/caregiver</t>
-  </si>
-  <si>
-    <t>I have a support system that consist of families with children of similar ages as my child</t>
-  </si>
-  <si>
-    <t>I spend time with my child doing what he/she likes to do.</t>
   </si>
   <si>
     <t>I read to my child</t>
@@ -889,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1001,7 +989,7 @@
     </row>
     <row r="2" spans="1:76" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -1096,122 +1084,110 @@
       <c r="AF2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AY2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BL2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>33</v>
@@ -1234,13 +1210,13 @@
         <v>43894</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1252,133 +1228,115 @@
         <v>70122</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Y3" t="s">
         <v>87</v>
       </c>
-      <c r="P3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" t="s">
         <v>89</v>
       </c>
-      <c r="X3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP3" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AQ3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="BA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK3" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="BM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW3" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="BX3" t="s">
         <v>96</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.2">
@@ -1386,13 +1344,13 @@
         <v>43882</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1404,142 +1362,124 @@
         <v>70116</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s">
         <v>105</v>
       </c>
-      <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="AD4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO4" t="s">
         <v>106</v>
       </c>
-      <c r="W4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AP4" t="s">
         <v>91</v>
       </c>
-      <c r="Z4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>95</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AR4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AS4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AT4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AV4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AX4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD4" t="s">
         <v>62</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BE4" t="s">
         <v>63</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BF4" t="s">
         <v>64</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BG4" t="s">
         <v>65</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BH4" t="s">
         <v>66</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>67</v>
       </c>
-      <c r="BF4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH4" t="s">
+      <c r="BM4" t="s">
         <v>70</v>
       </c>
-      <c r="BI4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>74</v>
-      </c>
       <c r="BU4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.2">
@@ -1547,13 +1487,13 @@
         <v>43880</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1565,130 +1505,112 @@
         <v>70116</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Z5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP5" t="s">
         <v>106</v>
       </c>
-      <c r="W5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW5" t="s">
         <v>110</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>114</v>
-      </c>
       <c r="BX5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
@@ -1696,13 +1618,13 @@
         <v>43879</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1714,100 +1636,82 @@
         <v>70119</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
         <v>87</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Z6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
         <v>106</v>
       </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>110</v>
-      </c>
       <c r="AP6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AQ6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AR6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AS6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AT6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AU6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AV6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AX6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.2">
@@ -1815,13 +1719,13 @@
         <v>43879</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1833,130 +1737,112 @@
         <v>70131</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" t="s">
         <v>87</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Z7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP7" t="s">
         <v>106</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AQ7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU7" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>95</v>
-      </c>
       <c r="AV7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AX7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AY7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX7" t="s">
         <v>119</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.2">
@@ -1964,13 +1850,13 @@
         <v>43872</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1982,118 +1868,100 @@
         <v>70128</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" t="s">
         <v>87</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Z8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP8" t="s">
         <v>106</v>
       </c>
-      <c r="W8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AR8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AS8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AT8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AV8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AX8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AY8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BA8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BH8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM8" t="s">
         <v>70</v>
       </c>
-      <c r="BK8" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>74</v>
-      </c>
       <c r="BU8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.2">
@@ -2101,13 +1969,13 @@
         <v>43852</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2119,139 +1987,121 @@
         <v>70118</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Z9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>106</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AR9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV9" t="s">
         <v>91</v>
       </c>
-      <c r="Z9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>95</v>
-      </c>
       <c r="AW9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AX9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AY9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX9" t="s">
         <v>127</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>130</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.2">
@@ -2259,13 +2109,13 @@
         <v>43852</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2277,121 +2127,103 @@
         <v>70115</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="W10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP10" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>95</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AR10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AT10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AV10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AX10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BB10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BG10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="BH10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BT10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BU10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BW10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="BX10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.2">
@@ -2399,13 +2231,13 @@
         <v>43852</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -2417,118 +2249,100 @@
         <v>70115</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP11" t="s">
         <v>91</v>
       </c>
-      <c r="Z11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>95</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AR11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AS11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AT11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AV11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AW11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AX11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BA11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BK11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BQ11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BU11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BW11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="BX11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.2">
@@ -2536,13 +2350,13 @@
         <v>43852</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2551,136 +2365,118 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12">
         <v>70114</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" t="s">
+        <v>137</v>
+      </c>
+      <c r="U12" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV12" t="s">
         <v>106</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AW12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX12" t="s">
         <v>141</v>
-      </c>
-      <c r="U12" t="s">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s">
-        <v>106</v>
-      </c>
-      <c r="W12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.2">
@@ -2688,142 +2484,124 @@
         <v>43852</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <v>70122</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW13" t="s">
         <v>147</v>
       </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="BX13" t="s">
         <v>148</v>
-      </c>
-      <c r="W13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>77</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>151</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
